--- a/InputData/trans/ECpV/Embedded Carbon per Vehicle.xlsx
+++ b/InputData/trans/ECpV/Embedded Carbon per Vehicle.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deept\Dropbox\EPS\Input Data for India 2.0\trans\ECpV\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63A3F5F6-5301-471C-8E64-BB94E9C29275}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="90" windowWidth="23955" windowHeight="13110"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -13,12 +19,20 @@
     <sheet name="ECpV-psgr" sheetId="2" r:id="rId4"/>
     <sheet name="ECpV-frgt" sheetId="3" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="59">
   <si>
     <t>PE International</t>
   </si>
@@ -113,15 +127,9 @@
     <t>plugin hybrid vehicle</t>
   </si>
   <si>
-    <t>nonroad vehicle</t>
-  </si>
-  <si>
     <t>Notes</t>
   </si>
   <si>
-    <t>The unit is metric tons of CO2e.</t>
-  </si>
-  <si>
     <t>We estimate embedded carbon in vehicle types other than passenger LDVs by scaling the embedded carbon in</t>
   </si>
   <si>
@@ -174,14 +182,41 @@
   </si>
   <si>
     <t>See BNVP variable.</t>
+  </si>
+  <si>
+    <t>Embedded Carbon (metric tons CO2e/vehicle</t>
+  </si>
+  <si>
+    <t>LPG vehicle</t>
+  </si>
+  <si>
+    <t>hydrogen vehicle</t>
+  </si>
+  <si>
+    <t>Start Year</t>
+  </si>
+  <si>
+    <t>This variable represents the GHG emissions associated with vehicle</t>
+  </si>
+  <si>
+    <t>production, reported in metric tons CO2e per vehicle.</t>
+  </si>
+  <si>
+    <t>We don't have data for hydrogen fuel cell vehicles, so we assume</t>
+  </si>
+  <si>
+    <t>their embedded carbon is similar to that of PHEVs.</t>
+  </si>
+  <si>
+    <t>India values used from BNVP. Remaining values from US.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -239,7 +274,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -249,6 +284,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -318,7 +359,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -340,26 +381,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="8">
-    <cellStyle name="Body: normal cell" xfId="2"/>
-    <cellStyle name="Font: Calibri, 9pt regular" xfId="3"/>
-    <cellStyle name="Footnotes: top row" xfId="4"/>
-    <cellStyle name="Header: bottom row" xfId="5"/>
+    <cellStyle name="Body: normal cell" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Footnotes: top row" xfId="4" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Header: bottom row" xfId="5" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Parent row" xfId="6"/>
-    <cellStyle name="Table title" xfId="7"/>
+    <cellStyle name="Parent row" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Table title" xfId="7" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -408,7 +459,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -441,9 +492,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -476,6 +544,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -651,8 +736,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -700,48 +785,71 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B10" s="12" t="s">
-        <v>50</v>
+      <c r="B10" s="11" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>33</v>
+      <c r="A14" s="15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>35</v>
-      </c>
+      <c r="A16" s="4"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>37</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1" display="http://www.lowcvp.org.uk/assets/reports/CONFERENCE 2013 Final Report_Lifecycle CO2 Assessment of Low Carbon Cars 2020-2030_PEJuly2013.pdf"/>
+    <hyperlink ref="B7" r:id="rId1" display="http://www.lowcvp.org.uk/assets/reports/CONFERENCE 2013 Final Report_Lifecycle CO2 Assessment of Low Carbon Cars 2020-2030_PEJuly2013.pdf" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -749,10 +857,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -912,10 +1022,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -927,41 +1039,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>53</v>
+      </c>
       <c r="B1" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="K1" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="L1" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="M1" s="8" t="s">
         <v>47</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -969,28 +1084,28 @@
         <v>26</v>
       </c>
       <c r="B2" s="10">
-        <v>66733.274166000003</v>
+        <v>12097.810982293322</v>
       </c>
       <c r="C2" s="10">
-        <v>63555.320858571446</v>
+        <v>0</v>
       </c>
       <c r="D2" s="10">
-        <v>777558.88623342291</v>
+        <v>370341.15251918341</v>
       </c>
       <c r="E2" s="10">
-        <v>215046.42741217426</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>670805311.2605623</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>903463016.72015822</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>9830199.0140587911</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>5696549.2057695817</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -999,10 +1114,10 @@
         <v>0</v>
       </c>
       <c r="L2" s="10">
-        <v>15992.05339289682</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
+        <v>581.29981769919425</v>
+      </c>
+      <c r="M2" s="10">
+        <v>1370.2622643209786</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -1010,16 +1125,16 @@
         <v>27</v>
       </c>
       <c r="B3" s="10">
-        <v>45171.020185999994</v>
+        <v>7677.1720917226739</v>
       </c>
       <c r="C3" s="10">
-        <v>43848.481093999995</v>
+        <v>8851.1535452084827</v>
       </c>
       <c r="D3" s="10">
-        <v>513514.64247010724</v>
+        <v>47163.069220368845</v>
       </c>
       <c r="E3" s="10">
-        <v>142020.7411196451</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -1042,8 +1157,8 @@
       <c r="L3">
         <v>0</v>
       </c>
-      <c r="M3">
-        <v>0</v>
+      <c r="M3" s="10">
+        <v>2592.3880676342837</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -1051,16 +1166,16 @@
         <v>28</v>
       </c>
       <c r="B4" s="10">
-        <v>37472.661407999993</v>
+        <v>8414.1509852358431</v>
       </c>
       <c r="C4" s="10">
-        <v>35338.939199</v>
+        <v>0</v>
       </c>
       <c r="D4" s="10">
-        <v>480637.41599999997</v>
+        <v>0</v>
       </c>
       <c r="E4" s="10">
-        <v>132928.01486984815</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -1081,10 +1196,10 @@
         <v>0</v>
       </c>
       <c r="L4" s="10">
-        <v>8980</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
+        <v>1175.292461165729</v>
+      </c>
+      <c r="M4" s="10">
+        <v>2376.3557286647601</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -1092,40 +1207,40 @@
         <v>29</v>
       </c>
       <c r="B5" s="10">
-        <v>41250.262873</v>
+        <v>11170.723630486968</v>
       </c>
       <c r="C5" s="10">
-        <v>41041.128928999999</v>
+        <v>6889.8885249923069</v>
       </c>
       <c r="D5" s="10">
-        <v>480637.41599999997</v>
+        <v>35793.47239097907</v>
       </c>
       <c r="E5" s="10">
-        <v>132928.01486984815</v>
+        <v>18344.231754783552</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>64833333.333333336</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>87319700.566003278</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>9282453.8981194086</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>5203578.6014241371</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>189030.21913307568</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>10000000</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
-      <c r="M5">
-        <v>0</v>
+      <c r="M5" s="10">
+        <v>2043.0486913974946</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -1133,16 +1248,16 @@
         <v>30</v>
       </c>
       <c r="B6" s="10">
-        <v>56853.790958999998</v>
+        <v>85108.100260433552</v>
       </c>
       <c r="C6" s="10">
-        <v>51017.118906285701</v>
+        <v>0</v>
       </c>
       <c r="D6" s="10">
-        <v>662445.69787272683</v>
+        <v>0</v>
       </c>
       <c r="E6" s="10">
-        <v>183210.02203726224</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1165,13 +1280,13 @@
       <c r="L6">
         <v>0</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>31</v>
+      <c r="A7" s="14" t="s">
+        <v>51</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1186,27 +1301,68 @@
         <v>0</v>
       </c>
       <c r="F7" s="10">
-        <v>64833333.333333336</v>
+        <v>0</v>
       </c>
       <c r="G7" s="10">
-        <v>64833333.333333336</v>
+        <v>0</v>
       </c>
       <c r="H7" s="10">
-        <v>2500000</v>
+        <v>0</v>
       </c>
       <c r="I7" s="10">
-        <v>2500000</v>
+        <v>0</v>
       </c>
       <c r="J7" s="10">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="10">
-        <v>10000000</v>
+        <v>0</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8" s="10">
         <v>0</v>
       </c>
     </row>
@@ -1216,24 +1372,30 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" customWidth="1"/>
     <col min="2" max="3" width="24.28515625" customWidth="1"/>
     <col min="4" max="4" width="18.7109375" customWidth="1"/>
     <col min="5" max="5" width="17.7109375" customWidth="1"/>
     <col min="6" max="7" width="24.28515625" customWidth="1"/>
+    <col min="8" max="8" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>50</v>
+      </c>
       <c r="B1" s="8" t="s">
         <v>26</v>
       </c>
@@ -1250,10 +1412,13 @@
         <v>30</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -1277,132 +1442,165 @@
         <f>SUM('PE 8-8'!B5:C5)</f>
         <v>8.01</v>
       </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G2" s="9">
+        <f>SUM('PE 8-8'!B3:C3)</f>
+        <v>6.4399999999999995</v>
+      </c>
+      <c r="H2" s="9">
+        <f>F2</f>
+        <v>8.01</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="9">
         <f>B2*('Data from BNVP'!D2/'Data from BNVP'!B2)</f>
-        <v>127.70309114340176</v>
+        <v>335.51020408163276</v>
       </c>
       <c r="C3" s="9">
         <f>C2*('Data from BNVP'!D3/'Data from BNVP'!B3)</f>
-        <v>73.211414838322611</v>
+        <v>39.562766361151297</v>
       </c>
       <c r="D3" s="9">
         <f>D2*('Data from BNVP'!D4/'Data from BNVP'!B4)</f>
-        <v>82.60168460784017</v>
+        <v>0</v>
       </c>
       <c r="E3" s="9">
         <f>E2*('Data from BNVP'!D5/'Data from BNVP'!B5)</f>
-        <v>75.037217788641158</v>
+        <v>20.635186208420816</v>
       </c>
       <c r="F3" s="9">
         <f>F2*('Data from BNVP'!D6/'Data from BNVP'!B6)</f>
-        <v>93.330452560095608</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="G3" s="9">
+        <v>0</v>
+      </c>
+      <c r="H3" s="9">
+        <f>F3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
+      <c r="B4" s="9">
+        <f>$E4</f>
+        <v>49621.960361692232</v>
+      </c>
+      <c r="C4" s="9">
+        <f>$E4</f>
+        <v>49621.960361692232</v>
+      </c>
+      <c r="D4" s="9">
+        <f>$E4</f>
+        <v>49621.960361692232</v>
+      </c>
+      <c r="E4" s="9">
+        <f>D2*('Data from BNVP'!F5/'Data from BNVP'!B4)</f>
+        <v>49621.960361692232</v>
+      </c>
+      <c r="F4" s="9">
         <v>0</v>
       </c>
       <c r="G4" s="9">
-        <f>D2*('Data from BNVP'!F7/'Data from BNVP'!B4)</f>
-        <v>11142.167408945483</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="H4" s="9">
+        <f>$E4</f>
+        <v>49621.960361692232</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>23</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
+      <c r="B5" s="9">
+        <f>$E5</f>
+        <v>7104.5793222372768</v>
+      </c>
+      <c r="C5" s="9">
+        <f>$E5</f>
+        <v>7104.5793222372768</v>
+      </c>
+      <c r="D5" s="9">
+        <f>$E5</f>
+        <v>7104.5793222372768</v>
+      </c>
+      <c r="E5" s="9">
+        <f>D2*('Data from BNVP'!H5/'Data from BNVP'!B4)</f>
+        <v>7104.5793222372768</v>
+      </c>
+      <c r="F5" s="9">
         <v>0</v>
       </c>
       <c r="G5" s="9">
-        <f>D2*('Data from BNVP'!H7/'Data from BNVP'!B4)</f>
-        <v>429.64655818555843</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="H5" s="9">
+        <f>$E5</f>
+        <v>7104.5793222372768</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>24</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
+      <c r="B6" s="9">
+        <f>$E6</f>
+        <v>144.67943507943667</v>
+      </c>
+      <c r="C6" s="9">
+        <f>$E6</f>
+        <v>144.67943507943667</v>
+      </c>
+      <c r="D6" s="9">
+        <f>$E6</f>
+        <v>144.67943507943667</v>
+      </c>
+      <c r="E6" s="9">
+        <f>D2*('Data from BNVP'!J5/'Data from BNVP'!B4)</f>
+        <v>144.67943507943667</v>
+      </c>
+      <c r="F6" s="9">
         <v>0</v>
       </c>
       <c r="G6" s="9">
-        <f>D2*('Data from BNVP'!J7/'Data from BNVP'!B4)</f>
-        <v>5.155758698226701</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="H6" s="9">
+        <f>$E6</f>
+        <v>144.67943507943667</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>25</v>
       </c>
       <c r="B7" s="9">
         <f>B2*('Data from BNVP'!L2/'Data from BNVP'!B2)</f>
-        <v>2.6264694393707586</v>
-      </c>
-      <c r="C7">
+        <v>0.5266280000000001</v>
+      </c>
+      <c r="C7" s="9">
         <v>0</v>
       </c>
       <c r="D7" s="9">
         <f>D2*('Data from BNVP'!L4/'Data from BNVP'!B4)</f>
-        <v>1.543290437002526</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
+        <v>0.89954214788732412</v>
+      </c>
+      <c r="E7" s="9">
+        <v>0</v>
+      </c>
+      <c r="F7" s="9">
+        <v>0</v>
+      </c>
+      <c r="G7" s="9">
+        <v>0</v>
+      </c>
+      <c r="H7" s="9">
         <v>0</v>
       </c>
     </row>
@@ -1412,24 +1610,30 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="1" max="1" width="20.5703125" customWidth="1"/>
     <col min="2" max="3" width="24.28515625" customWidth="1"/>
     <col min="4" max="4" width="18.7109375" customWidth="1"/>
     <col min="5" max="5" width="17.7109375" customWidth="1"/>
     <col min="6" max="7" width="24.28515625" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>50</v>
+      </c>
       <c r="B1" s="8" t="s">
         <v>26</v>
       </c>
@@ -1446,157 +1650,192 @@
         <v>30</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="9">
         <f>'ECpV-psgr'!B2*('Data from BNVP'!C2/'Data from BNVP'!B2)</f>
-        <v>10.438065947089965</v>
+        <v>0</v>
       </c>
       <c r="C2" s="9">
         <f>'ECpV-psgr'!C2*('Data from BNVP'!C3/'Data from BNVP'!B3)</f>
-        <v>6.2514465487516313</v>
+        <v>7.4247949831162536</v>
       </c>
       <c r="D2" s="9">
         <f>'ECpV-psgr'!D2*('Data from BNVP'!C4/'Data from BNVP'!B4)</f>
-        <v>6.0733014387116269</v>
+        <v>0</v>
       </c>
       <c r="E2" s="9">
         <f>'ECpV-psgr'!E2*('Data from BNVP'!C5/'Data from BNVP'!B5)</f>
-        <v>6.4073499632352258</v>
+        <v>3.9720687368770022</v>
       </c>
       <c r="F2" s="9">
         <f>'ECpV-psgr'!F2*('Data from BNVP'!C6/'Data from BNVP'!B6)</f>
-        <v>7.1876846828744201</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="G2" s="9">
+        <v>0</v>
+      </c>
+      <c r="H2" s="9">
+        <f>F2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="9">
         <f>'ECpV-psgr'!B2*('Data from BNVP'!E2/'Data from BNVP'!B2)</f>
-        <v>35.318345666280131</v>
+        <v>0</v>
       </c>
       <c r="C3" s="9">
         <f>'ECpV-psgr'!C2*('Data from BNVP'!E3/'Data from BNVP'!B3)</f>
-        <v>20.24779535738676</v>
+        <v>0</v>
       </c>
       <c r="D3" s="9">
         <f>'ECpV-psgr'!D2*('Data from BNVP'!E4/'Data from BNVP'!B4)</f>
-        <v>22.844825630107596</v>
+        <v>0</v>
       </c>
       <c r="E3" s="9">
         <f>'ECpV-psgr'!E2*('Data from BNVP'!E5/'Data from BNVP'!B5)</f>
-        <v>20.752750555733943</v>
+        <v>10.575577411868716</v>
       </c>
       <c r="F3" s="9">
         <f>'ECpV-psgr'!F2*('Data from BNVP'!E6/'Data from BNVP'!B6)</f>
-        <v>25.812039122892688</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="G3" s="9">
+        <v>0</v>
+      </c>
+      <c r="H3" s="9">
+        <f>F3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
+      <c r="B4" s="9">
+        <f>$E4</f>
+        <v>66832.514965774535</v>
+      </c>
+      <c r="C4" s="9">
+        <f>$E4</f>
+        <v>66832.514965774535</v>
+      </c>
+      <c r="D4" s="9">
+        <f>$E4</f>
+        <v>66832.514965774535</v>
+      </c>
+      <c r="E4" s="9">
+        <f>'ECpV-psgr'!D2*('Data from BNVP'!G5/'Data from BNVP'!B4)</f>
+        <v>66832.514965774535</v>
+      </c>
+      <c r="F4" s="9">
         <v>0</v>
       </c>
       <c r="G4" s="9">
-        <f>'ECpV-psgr'!D2*('Data from BNVP'!G7/'Data from BNVP'!B4)</f>
-        <v>11142.167408945483</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="H4" s="9">
+        <f>$E4</f>
+        <v>66832.514965774535</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>23</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
+      <c r="B5" s="9">
+        <f>$E5</f>
+        <v>3982.7008395704643</v>
+      </c>
+      <c r="C5" s="9">
+        <f>$E5</f>
+        <v>3982.7008395704643</v>
+      </c>
+      <c r="D5" s="9">
+        <f>$E5</f>
+        <v>3982.7008395704643</v>
+      </c>
+      <c r="E5" s="9">
+        <f>'ECpV-psgr'!D2*('Data from BNVP'!I5/'Data from BNVP'!B4)</f>
+        <v>3982.7008395704643</v>
+      </c>
+      <c r="F5" s="9">
         <v>0</v>
       </c>
       <c r="G5" s="9">
-        <f>'ECpV-psgr'!D2*('Data from BNVP'!I7/'Data from BNVP'!B4)</f>
-        <v>429.64655818555843</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="H5" s="9">
+        <f t="shared" ref="H5:H6" si="0">$E5</f>
+        <v>3982.7008395704643</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>24</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
+      <c r="B6" s="9">
+        <f>$E6</f>
+        <v>7653.7728064306784</v>
+      </c>
+      <c r="C6" s="9">
+        <f>$E6</f>
+        <v>7653.7728064306784</v>
+      </c>
+      <c r="D6" s="9">
+        <f>$E6</f>
+        <v>7653.7728064306784</v>
+      </c>
+      <c r="E6" s="9">
+        <f>'ECpV-psgr'!D2*('Data from BNVP'!K5/'Data from BNVP'!B4)</f>
+        <v>7653.7728064306784</v>
+      </c>
+      <c r="F6" s="9">
         <v>0</v>
       </c>
       <c r="G6" s="9">
-        <f>'ECpV-psgr'!D2*('Data from BNVP'!K7/'Data from BNVP'!B4)</f>
-        <v>1718.5862327422337</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="H6" s="9">
+        <f t="shared" si="0"/>
+        <v>7653.7728064306784</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="11">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="11">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
+      <c r="B7" s="9">
+        <v>0</v>
+      </c>
+      <c r="C7" s="9">
+        <v>0</v>
+      </c>
+      <c r="D7" s="9">
+        <v>0</v>
+      </c>
+      <c r="E7" s="9">
+        <v>0</v>
+      </c>
+      <c r="F7" s="9">
+        <v>0</v>
+      </c>
+      <c r="G7" s="9">
+        <v>0</v>
+      </c>
+      <c r="H7" s="9">
         <v>0</v>
       </c>
     </row>
